--- a/homicidiosHomensNegrosPais.xlsx
+++ b/homicidiosHomensNegrosPais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsg-k\IdeaProjects\guiExample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66638BC2-AA36-496D-A287-3FA03150DCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3831D8-65F5-4C06-8807-CE0679D20B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,7 +668,7 @@
       </font>
       <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -704,13 +700,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -738,10 +737,107 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -765,38 +861,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -866,7 +930,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -875,7 +939,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -898,6 +964,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -906,35 +973,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top/>
         <bottom style="thin">
           <color indexed="64"/>
@@ -964,7 +1002,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -990,7 +1030,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -999,111 +1039,7 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1137,6 +1073,37 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1174,29 +1141,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1214,6 +1158,58 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1238,14 +1234,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CB46287-E6E0-4E53-A4CE-13DACB2A8905}" name="TabelaHNP" displayName="TabelaHNP" ref="A1:H18" headerRowCount="0" totalsRowShown="0" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16" dataCellStyle="Título 3">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{74FBA76B-6866-4A57-B28C-35DF9BF1F100}" name="Coluna1" headerRowDxfId="1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{F59CF742-B2B0-43FC-92E6-AE07C6183CDA}" name="Coluna2" headerRowDxfId="2" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{3F569B7D-6240-42AF-B4AC-2196C0358171}" name="Coluna3" headerRowDxfId="3" dataDxfId="13" dataCellStyle="Título 3"/>
-    <tableColumn id="4" xr3:uid="{9DB3F34E-65DC-4A1F-8A1C-0BC258ECA175}" name="Coluna4" headerRowDxfId="4" dataDxfId="12" dataCellStyle="Título 3"/>
-    <tableColumn id="5" xr3:uid="{A2EB7EE8-0A24-4EB7-9EBA-59ED449E9E6B}" name="Coluna5" headerRowDxfId="5" dataDxfId="11" dataCellStyle="Título 3"/>
-    <tableColumn id="6" xr3:uid="{9666CEDE-86E9-468B-B43B-F494CE82C149}" name="Coluna6" headerRowDxfId="6" dataDxfId="10" dataCellStyle="Título 3"/>
-    <tableColumn id="7" xr3:uid="{F2454165-AFF7-489A-9669-6A8F8C96A8E6}" name="Coluna7" headerRowDxfId="7" dataDxfId="0" dataCellStyle="Título 3"/>
-    <tableColumn id="8" xr3:uid="{FCF6AFE7-4A3B-43A0-ABA5-0EE943B16DEF}" name="Coluna8" headerRowDxfId="8" dataDxfId="9" dataCellStyle="Título 3"/>
+    <tableColumn id="1" xr3:uid="{74FBA76B-6866-4A57-B28C-35DF9BF1F100}" name="Coluna1" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{F59CF742-B2B0-43FC-92E6-AE07C6183CDA}" name="Coluna2" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3F569B7D-6240-42AF-B4AC-2196C0358171}" name="Coluna3" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Título 3"/>
+    <tableColumn id="4" xr3:uid="{9DB3F34E-65DC-4A1F-8A1C-0BC258ECA175}" name="Coluna4" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Título 3"/>
+    <tableColumn id="5" xr3:uid="{A2EB7EE8-0A24-4EB7-9EBA-59ED449E9E6B}" name="Coluna5" headerRowDxfId="7" dataDxfId="0" dataCellStyle="Título 3"/>
+    <tableColumn id="6" xr3:uid="{9666CEDE-86E9-468B-B43B-F494CE82C149}" name="Coluna6" headerRowDxfId="6" dataDxfId="5" dataCellStyle="Título 3"/>
+    <tableColumn id="7" xr3:uid="{F2454165-AFF7-489A-9669-6A8F8C96A8E6}" name="Coluna7" headerRowDxfId="4" dataDxfId="3" dataCellStyle="Título 3"/>
+    <tableColumn id="8" xr3:uid="{FCF6AFE7-4A3B-43A0-ABA5-0EE943B16DEF}" name="Coluna8" headerRowDxfId="2" dataDxfId="1" dataCellStyle="Título 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1551,7 +1547,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,20 +1812,19 @@
         <v>31840.555555555555</v>
       </c>
       <c r="D18" s="7">
-        <f>AVEDEV(B1:B18)</f>
-        <v>5477.1728395061718</v>
+        <f>MEDIAN(B1:B18)</f>
+        <v>30966.5</v>
       </c>
       <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
         <f>_xlfn.STDEV.P(B1:B18)</f>
         <v>6546.2995588026861</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <f>_xlfn.VAR.P(B1:B18)</f>
         <v>42854037.913580246</v>
-      </c>
-      <c r="G18" s="7">
-        <f>E18/C18</f>
-        <v>0.20559627319883508</v>
       </c>
       <c r="H18" s="6">
         <f>_xlfn.VAR.S(B1:B18)</f>
